--- a/MavenTestMay2022/target/test-classes/AppData/AppTestData.xlsx
+++ b/MavenTestMay2022/target/test-classes/AppData/AppTestData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaWorkspace\MavenTestMay2022\src\test\resources\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F411BD-A8E0-4284-A107-AA4A88AAD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203DE536-5467-442B-8D41-55F9FB4DDA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -61,14 +62,34 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>AppURL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
+  </si>
+  <si>
+    <t>ActualTitle</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,15 +106,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,14 +128,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,14 +443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -439,6 +490,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -461,4 +515,135 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0518850A-8695-4C1A-823E-48C67C814D1B}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{57588D08-CA3C-4362-B1A2-BAA522513300}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{EE7A8972-C38D-4414-A23B-5E1E998EAF47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>